--- a/downloads/Files/AccountRangeRules.xlsx
+++ b/downloads/Files/AccountRangeRules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Prodata\AdventureWorks\PowerBI\Finance\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A73A741-C733-4BEB-AD5E-8EE936BDC214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16986DAD-9B6C-4A24-B39A-A0493B149BC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29265" windowHeight="12510" xr2:uid="{82E437FC-B97B-4CFB-8A27-859D4B4232B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
   <si>
     <t>FromAccountNo</t>
   </si>
@@ -232,8 +233,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F1D3FCA-7530-4D36-8055-A120628E2813}" name="Table2" displayName="Table2" ref="A1:D81" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:D81" xr:uid="{4A918F39-0891-4E50-88FB-269ADE97A7B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F1D3FCA-7530-4D36-8055-A120628E2813}" name="Table2" displayName="Table2" ref="A1:D98" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:D98" xr:uid="{4A918F39-0891-4E50-88FB-269ADE97A7B1}"/>
+  <sortState ref="A2:D81">
+    <sortCondition ref="A2"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DEBC7E14-EC08-4609-8E00-A9129F9C1B49}" name="ReportNo" dataDxfId="0" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{C1D443AA-3BDD-49CD-A532-2762398AF36B}" name="ReportSection" dataCellStyle="Normal"/>
@@ -541,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57315FFD-91D7-487E-9541-737477DF1888}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,44 +687,44 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>6860</v>
+        <v>6000</v>
       </c>
       <c r="D10" s="2">
-        <v>6860</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="D11" s="2">
-        <v>6040</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="D12" s="2">
-        <v>6310</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,10 +735,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="D13" s="2">
-        <v>6400</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="D14" s="2">
-        <v>6700</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>6500</v>
+        <v>6920</v>
       </c>
       <c r="D15" s="2">
-        <v>6500</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>6920</v>
+        <v>6610</v>
       </c>
       <c r="D16" s="2">
-        <v>6920</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,304 +791,304 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>6610</v>
+        <v>6200</v>
       </c>
       <c r="D17" s="2">
-        <v>6620</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>6200</v>
+        <v>8020</v>
       </c>
       <c r="D18" s="2">
-        <v>6240</v>
+        <v>8040</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
-        <v>8020</v>
+        <v>8000</v>
       </c>
       <c r="D19" s="2">
-        <v>8040</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="D20" s="2">
-        <v>8010</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>8500</v>
+        <v>1210</v>
       </c>
       <c r="D21" s="2">
-        <v>8500</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="D22" s="2">
-        <v>1210</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="D23" s="2">
-        <v>1220</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="D24" s="2">
-        <v>1230</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="D25" s="2">
-        <v>1240</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="D26" s="2">
-        <v>1250</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
-        <v>1260</v>
+        <v>1300</v>
       </c>
       <c r="D27" s="2">
-        <v>1260</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>1300</v>
+        <v>1110</v>
       </c>
       <c r="D28" s="2">
-        <v>1300</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="D29" s="2">
-        <v>1110</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="D30" s="2">
-        <v>1140</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D31" s="2">
-        <v>1150</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="D32" s="2">
-        <v>1160</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="D33" s="2">
-        <v>1170</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D34" s="2">
-        <v>1180</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
+      <c r="A35" s="3">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C35" s="2">
-        <v>1185</v>
+        <v>2210</v>
       </c>
       <c r="D35" s="2">
-        <v>1185</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2">
-        <v>2210</v>
+        <v>2220</v>
       </c>
       <c r="D36" s="2">
-        <v>2210</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="D37" s="2">
-        <v>2220</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2">
-        <v>2230</v>
+        <v>2310</v>
       </c>
       <c r="D38" s="2">
-        <v>2230</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,10 +1099,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="2">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="D39" s="2">
-        <v>2310</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,136 +1113,136 @@
         <v>35</v>
       </c>
       <c r="C40" s="2">
-        <v>2320</v>
+        <v>2330</v>
       </c>
       <c r="D40" s="2">
-        <v>2320</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2">
-        <v>2330</v>
+        <v>2340</v>
       </c>
       <c r="D41" s="2">
-        <v>2330</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="D42" s="2">
-        <v>2340</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>37</v>
+      <c r="A43" s="4">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
       </c>
       <c r="C43" s="2">
-        <v>2350</v>
+        <v>2410</v>
       </c>
       <c r="D43" s="2">
-        <v>2350</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="D44" s="2">
-        <v>2410</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="D45" s="2">
-        <v>2420</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="D46" s="2">
-        <v>2430</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>54</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
+      <c r="A47" s="3">
+        <v>56</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C47" s="2">
-        <v>2440</v>
+        <v>3010</v>
       </c>
       <c r="D47" s="2">
-        <v>2440</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2">
-        <v>3010</v>
+        <v>3020</v>
       </c>
       <c r="D48" s="2">
-        <v>3010</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2">
-        <v>3020</v>
+        <v>3540</v>
       </c>
       <c r="D49" s="2">
-        <v>3020</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1249,262 +1253,262 @@
         <v>44</v>
       </c>
       <c r="C50" s="2">
-        <v>3540</v>
+        <v>3550</v>
       </c>
       <c r="D50" s="2">
-        <v>3540</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>58</v>
+      <c r="A51" s="4">
+        <v>60</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2">
-        <v>3550</v>
+        <v>1210</v>
       </c>
       <c r="D51" s="2">
-        <v>3550</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="D52" s="2">
-        <v>1210</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53" s="2">
-        <v>1220</v>
+        <v>1230</v>
       </c>
       <c r="D53" s="2">
-        <v>1220</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>1230</v>
+        <v>1240</v>
       </c>
       <c r="D54" s="2">
-        <v>1230</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="D55" s="2">
-        <v>1240</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2">
-        <v>1250</v>
+        <v>1260</v>
       </c>
       <c r="D56" s="2">
-        <v>1250</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" s="2">
-        <v>1260</v>
+        <v>1300</v>
       </c>
       <c r="D57" s="2">
-        <v>1260</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2">
-        <v>1300</v>
+        <v>1110</v>
       </c>
       <c r="D58" s="2">
-        <v>1300</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C59" s="2">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="D59" s="2">
-        <v>1110</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C60" s="2">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="D60" s="2">
-        <v>1140</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" s="2">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D61" s="2">
-        <v>1150</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="D62" s="2">
-        <v>1160</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" s="2">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="D63" s="2">
-        <v>1170</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2">
-        <v>1180</v>
+        <v>1185</v>
       </c>
       <c r="D64" s="2">
-        <v>1180</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" s="2">
-        <v>1185</v>
+        <v>2210</v>
       </c>
       <c r="D65" s="2">
-        <v>1185</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2">
-        <v>2210</v>
+        <v>2220</v>
       </c>
       <c r="D66" s="2">
-        <v>2210</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2">
-        <v>2220</v>
+        <v>2230</v>
       </c>
       <c r="D67" s="2">
-        <v>2220</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2">
-        <v>2230</v>
+        <v>2310</v>
       </c>
       <c r="D68" s="2">
-        <v>2230</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="C69" s="2">
-        <v>2310</v>
+        <v>2320</v>
       </c>
       <c r="D69" s="2">
-        <v>2310</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,136 +1533,136 @@
         <v>35</v>
       </c>
       <c r="C70" s="2">
-        <v>2320</v>
+        <v>2330</v>
       </c>
       <c r="D70" s="2">
-        <v>2320</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2">
-        <v>2330</v>
+        <v>2340</v>
       </c>
       <c r="D71" s="2">
-        <v>2330</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="D72" s="2">
-        <v>2340</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2">
-        <v>2350</v>
+        <v>2410</v>
       </c>
       <c r="D73" s="2">
-        <v>2350</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="D74" s="2">
-        <v>2410</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2">
-        <v>2420</v>
+        <v>2430</v>
       </c>
       <c r="D75" s="2">
-        <v>2420</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="D76" s="2">
-        <v>2430</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C77" s="2">
-        <v>2440</v>
+        <v>3010</v>
       </c>
       <c r="D77" s="2">
-        <v>2440</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2">
-        <v>3010</v>
+        <v>3020</v>
       </c>
       <c r="D78" s="2">
-        <v>3010</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C79" s="2">
-        <v>3020</v>
+        <v>3540</v>
       </c>
       <c r="D79" s="2">
-        <v>3020</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,24 +1673,262 @@
         <v>44</v>
       </c>
       <c r="C80" s="2">
-        <v>3540</v>
+        <v>3550</v>
       </c>
       <c r="D80" s="2">
-        <v>3540</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2">
-        <v>3550</v>
+        <v>6860</v>
       </c>
       <c r="D81" s="2">
-        <v>3550</v>
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>114</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4200</v>
+      </c>
+      <c r="D82" s="2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>115</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D83" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>116</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4140</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>118</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="2">
+        <v>4130</v>
+      </c>
+      <c r="D85" s="2">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>120</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5020</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>123</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D87" s="2">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>124</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6810</v>
+      </c>
+      <c r="D88" s="2">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D89" s="2">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6300</v>
+      </c>
+      <c r="D90" s="2">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>127</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6400</v>
+      </c>
+      <c r="D91" s="2">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>127</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6700</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>127</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6500</v>
+      </c>
+      <c r="D93" s="2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>127</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="2">
+        <v>6920</v>
+      </c>
+      <c r="D94" s="2">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>127</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="2">
+        <v>6610</v>
+      </c>
+      <c r="D95" s="2">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>127</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6200</v>
+      </c>
+      <c r="D96" s="2">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>128</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="2">
+        <v>8020</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>134</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6810</v>
+      </c>
+      <c r="D98" s="2">
+        <v>6850</v>
       </c>
     </row>
   </sheetData>
@@ -1695,4 +1937,257 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7255EB80-8D1F-42BA-8C59-FD602B099A4C}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1">
+        <v>4200</v>
+      </c>
+      <c r="D1">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4140</v>
+      </c>
+      <c r="D3">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4130</v>
+      </c>
+      <c r="D4">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5020</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6810</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6300</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>127</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6400</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>127</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6700</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>127</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6920</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>127</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6610</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8020</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6810</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>